--- a/tests/test_inputs/test_inputs_Hospital_ExcelInput4.xlsx
+++ b/tests/test_inputs/test_inputs_Hospital_ExcelInput4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikola/pyrecodes_development/tests/test_inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikola/pyrecodes_hospitals/tests/test_inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EFCA8B-FA9C-DF44-8F0B-DED5B93B09CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6598E0-10BA-DD44-A0C5-F5E82EDE235A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" activeTab="2" xr2:uid="{8A19E584-5C10-AD41-83D9-0E8D98A88E8A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="102">
   <si>
     <t>Nurses</t>
   </si>
@@ -591,6 +591,9 @@
   </si>
   <si>
     <t>Stretcher to transport patient to the department</t>
+  </si>
+  <si>
+    <t>RestOfHospital</t>
   </si>
 </sst>
 </file>
@@ -1594,6 +1597,39 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1606,46 +1642,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1965,7 +1968,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
@@ -2024,7 +2027,7 @@
       <c r="N3" s="48"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="142" t="s">
+      <c r="A4" s="138" t="s">
         <v>76</v>
       </c>
       <c r="B4" s="78" t="s">
@@ -2037,7 +2040,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="142"/>
+      <c r="A5" s="138"/>
       <c r="B5" s="80" t="s">
         <v>78</v>
       </c>
@@ -2048,7 +2051,7 @@
       <c r="J5" s="48"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="142"/>
+      <c r="A6" s="138"/>
       <c r="B6" s="82" t="s">
         <v>79</v>
       </c>
@@ -2058,7 +2061,7 @@
       <c r="D6" s="81"/>
     </row>
     <row r="7" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="142"/>
+      <c r="A7" s="138"/>
       <c r="B7" s="83" t="s">
         <v>80</v>
       </c>
@@ -2070,7 +2073,7 @@
       <c r="J7" s="124"/>
     </row>
     <row r="8" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="143"/>
+      <c r="A8" s="139"/>
       <c r="B8" s="84" t="s">
         <v>81</v>
       </c>
@@ -2109,7 +2112,7 @@
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="144" t="s">
+      <c r="B12" s="140" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="29">
@@ -2121,7 +2124,7 @@
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="145"/>
+      <c r="B13" s="141"/>
       <c r="C13" s="29">
         <v>50000</v>
       </c>
@@ -2133,7 +2136,7 @@
       <c r="A14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="145"/>
+      <c r="B14" s="141"/>
       <c r="C14" s="30">
         <v>6</v>
       </c>
@@ -2144,7 +2147,7 @@
       <c r="A15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="146"/>
+      <c r="B15" s="142"/>
       <c r="C15" s="29">
         <v>50000</v>
       </c>
@@ -2167,7 +2170,7 @@
       <c r="A18" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="147" t="s">
+      <c r="B18" s="143" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="28">
@@ -2179,7 +2182,7 @@
       <c r="A19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="148"/>
+      <c r="B19" s="144"/>
       <c r="C19" s="29">
         <v>100000000</v>
       </c>
@@ -2195,7 +2198,7 @@
       <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="148"/>
+      <c r="B20" s="144"/>
       <c r="C20" s="28">
         <v>6</v>
       </c>
@@ -2206,7 +2209,7 @@
       <c r="A21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="149"/>
+      <c r="B21" s="145"/>
       <c r="C21" s="29">
         <v>30000</v>
       </c>
@@ -2229,7 +2232,7 @@
       <c r="A24" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="147" t="s">
+      <c r="B24" s="143" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="31">
@@ -2241,7 +2244,7 @@
       <c r="A25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="148"/>
+      <c r="B25" s="144"/>
       <c r="C25" s="29">
         <v>10000000</v>
       </c>
@@ -2255,7 +2258,7 @@
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="148"/>
+      <c r="B26" s="144"/>
       <c r="C26" s="29">
         <v>6</v>
       </c>
@@ -2268,7 +2271,7 @@
       <c r="A27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="149"/>
+      <c r="B27" s="145"/>
       <c r="C27" s="31">
         <v>1000000</v>
       </c>
@@ -2294,7 +2297,7 @@
       <c r="M29" s="6"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="150" t="s">
+      <c r="A30" s="146" t="s">
         <v>83</v>
       </c>
       <c r="B30" s="105" t="s">
@@ -2309,7 +2312,7 @@
       <c r="M30" s="6"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="151"/>
+      <c r="A31" s="147"/>
       <c r="B31" s="106" t="s">
         <v>78</v>
       </c>
@@ -2321,7 +2324,7 @@
       <c r="M31" s="6"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="151"/>
+      <c r="A32" s="147"/>
       <c r="B32" s="106" t="s">
         <v>79</v>
       </c>
@@ -2340,7 +2343,7 @@
       <c r="A33" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="137" t="s">
+      <c r="B33" s="148" t="s">
         <v>1</v>
       </c>
       <c r="C33" s="29">
@@ -2357,7 +2360,7 @@
       <c r="A34" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="137"/>
+      <c r="B34" s="148"/>
       <c r="C34" s="29">
         <v>720</v>
       </c>
@@ -2369,7 +2372,7 @@
       <c r="A35" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="137"/>
+      <c r="B35" s="148"/>
       <c r="C35" s="29">
         <v>24</v>
       </c>
@@ -2385,7 +2388,7 @@
       <c r="A36" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="137"/>
+      <c r="B36" s="148"/>
       <c r="C36" s="29">
         <v>96</v>
       </c>
@@ -2420,7 +2423,7 @@
       <c r="A39" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="137" t="s">
+      <c r="B39" s="148" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="28">
@@ -2432,7 +2435,7 @@
       <c r="A40" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="137"/>
+      <c r="B40" s="148"/>
       <c r="C40" s="29">
         <v>10</v>
       </c>
@@ -2446,7 +2449,7 @@
       <c r="A41" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="138"/>
+      <c r="B41" s="149"/>
       <c r="C41" s="32">
         <v>80</v>
       </c>
@@ -2483,7 +2486,7 @@
       <c r="A45" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="139" t="s">
+      <c r="B45" s="150" t="s">
         <v>77</v>
       </c>
       <c r="C45" s="28">
@@ -2496,7 +2499,7 @@
       <c r="A46" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="140"/>
+      <c r="B46" s="151"/>
       <c r="C46" s="29">
         <v>37</v>
       </c>
@@ -2506,7 +2509,7 @@
       <c r="A47" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="140"/>
+      <c r="B47" s="151"/>
       <c r="C47" s="29">
         <v>1</v>
       </c>
@@ -2516,7 +2519,7 @@
       <c r="A48" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="140" t="s">
+      <c r="B48" s="151" t="s">
         <v>78</v>
       </c>
       <c r="C48" s="29">
@@ -2528,7 +2531,7 @@
       <c r="A49" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B49" s="140"/>
+      <c r="B49" s="151"/>
       <c r="C49" s="29">
         <v>6</v>
       </c>
@@ -2538,7 +2541,7 @@
       <c r="A50" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="140"/>
+      <c r="B50" s="151"/>
       <c r="C50" s="29">
         <v>1</v>
       </c>
@@ -2548,7 +2551,7 @@
       <c r="A51" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B51" s="140" t="s">
+      <c r="B51" s="151" t="s">
         <v>79</v>
       </c>
       <c r="C51" s="29">
@@ -2560,7 +2563,7 @@
       <c r="A52" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B52" s="140"/>
+      <c r="B52" s="151"/>
       <c r="C52" s="29">
         <v>50</v>
       </c>
@@ -2570,7 +2573,7 @@
       <c r="A53" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B53" s="140"/>
+      <c r="B53" s="151"/>
       <c r="C53" s="29">
         <v>0</v>
       </c>
@@ -2580,7 +2583,7 @@
       <c r="A54" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B54" s="141" t="s">
+      <c r="B54" s="137" t="s">
         <v>80</v>
       </c>
       <c r="C54" s="29">
@@ -2592,7 +2595,7 @@
       <c r="A55" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B55" s="141"/>
+      <c r="B55" s="137"/>
       <c r="C55" s="29">
         <v>100</v>
       </c>
@@ -2602,7 +2605,7 @@
       <c r="A56" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B56" s="141"/>
+      <c r="B56" s="137"/>
       <c r="C56" s="29">
         <v>0</v>
       </c>
@@ -2612,7 +2615,7 @@
       <c r="A57" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="141" t="s">
+      <c r="B57" s="137" t="s">
         <v>81</v>
       </c>
       <c r="C57" s="29">
@@ -2624,7 +2627,7 @@
       <c r="A58" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="141"/>
+      <c r="B58" s="137"/>
       <c r="C58" s="29">
         <v>100</v>
       </c>
@@ -2634,7 +2637,7 @@
       <c r="A59" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B59" s="141"/>
+      <c r="B59" s="137"/>
       <c r="C59" s="29">
         <v>0</v>
       </c>
@@ -5307,8 +5310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43DBB10-3E6D-464B-A3CE-124915F968B4}">
   <dimension ref="A1:Y81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5498,10 +5501,10 @@
         <v>19</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="153" t="s">
+      <c r="E7" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="153"/>
+      <c r="F7" s="154"/>
       <c r="G7" s="58" t="s">
         <v>60</v>
       </c>
@@ -5512,10 +5515,10 @@
         <v>19</v>
       </c>
       <c r="J7" s="8"/>
-      <c r="K7" s="153" t="s">
+      <c r="K7" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="153"/>
+      <c r="L7" s="154"/>
       <c r="M7" s="58" t="s">
         <v>60</v>
       </c>
@@ -5526,10 +5529,10 @@
         <v>19</v>
       </c>
       <c r="P7" s="8"/>
-      <c r="Q7" s="153" t="s">
+      <c r="Q7" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="R7" s="153"/>
+      <c r="R7" s="154"/>
       <c r="S7" s="53" t="s">
         <v>60</v>
       </c>
@@ -6086,10 +6089,10 @@
         <v>19</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="153" t="s">
+      <c r="E21" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="153"/>
+      <c r="F21" s="154"/>
       <c r="G21" s="58" t="s">
         <v>60</v>
       </c>
@@ -6100,10 +6103,10 @@
         <v>19</v>
       </c>
       <c r="J21" s="8"/>
-      <c r="K21" s="153" t="s">
+      <c r="K21" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="153"/>
+      <c r="L21" s="154"/>
       <c r="M21" s="58" t="s">
         <v>60</v>
       </c>
@@ -6114,10 +6117,10 @@
         <v>19</v>
       </c>
       <c r="P21" s="8"/>
-      <c r="Q21" s="153" t="s">
+      <c r="Q21" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="R21" s="153"/>
+      <c r="R21" s="154"/>
       <c r="S21" s="58" t="s">
         <v>60</v>
       </c>
@@ -6128,10 +6131,10 @@
         <v>19</v>
       </c>
       <c r="V21" s="8"/>
-      <c r="W21" s="153" t="s">
+      <c r="W21" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="X21" s="153"/>
+      <c r="X21" s="154"/>
       <c r="Y21" s="53" t="s">
         <v>60</v>
       </c>
@@ -6589,7 +6592,7 @@
         <v>12</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10" t="s">
@@ -6656,10 +6659,10 @@
         <v>19</v>
       </c>
       <c r="D35" s="8"/>
-      <c r="E35" s="153" t="s">
+      <c r="E35" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="153"/>
+      <c r="F35" s="154"/>
       <c r="G35" s="53" t="s">
         <v>60</v>
       </c>
@@ -6858,10 +6861,10 @@
         <v>19</v>
       </c>
       <c r="D49" s="8"/>
-      <c r="E49" s="153" t="s">
+      <c r="E49" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="F49" s="153"/>
+      <c r="F49" s="154"/>
       <c r="G49" s="53" t="s">
         <v>60</v>
       </c>
@@ -7007,8 +7010,8 @@
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
-      <c r="E62" s="154"/>
-      <c r="F62" s="154"/>
+      <c r="E62" s="153"/>
+      <c r="F62" s="153"/>
       <c r="G62" s="7"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -7090,14 +7093,14 @@
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
-      <c r="E74" s="154"/>
-      <c r="F74" s="154"/>
+      <c r="E74" s="153"/>
+      <c r="F74" s="153"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
-      <c r="K74" s="154"/>
-      <c r="L74" s="154"/>
+      <c r="K74" s="153"/>
+      <c r="L74" s="153"/>
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
     </row>
@@ -7189,18 +7192,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="Q21:R21"/>
     <mergeCell ref="E74:F74"/>
     <mergeCell ref="K74:L74"/>
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="E62:F62"/>
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="Q21:R21"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q22:Q29 W22:W29 E36:E43 E63:E69 K75:K81 E8:E15 K8:K15 E22:E29 K22:K29 Q8:Q15 E75:E81 E50:E55 E57" xr:uid="{504019C3-7A7F-9F49-8A88-D2CEC545D45D}">
@@ -7224,7 +7227,7 @@
           <x14:formula1>
             <xm:f>ResourceSupply!$J$1:$N$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B2 H70 B70 B58 B44 B30 T16 N16 H16 B16 N2 H2</xm:sqref>
+          <xm:sqref>B2 H70 B70 B58 B44 H2 T16 N16 H16 B16 N2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
